--- a/data/Class 8 - Examination Results.xlsx
+++ b/data/Class 8 - Examination Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD6E583-B152-403B-AE3F-C6A37818010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900BA1A-9699-49F8-BB94-CACBD114F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1470" windowWidth="21510" windowHeight="11055" xr2:uid="{4F1A490C-8F59-40AD-BE00-0C02587873F2}"/>
+    <workbookView xWindow="-3343" yWindow="9154" windowWidth="22149" windowHeight="13920" xr2:uid="{4F1A490C-8F59-40AD-BE00-0C02587873F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>Dhan Kumari Gurung</t>
   </si>
   <si>
-    <t>Ab</t>
-  </si>
-  <si>
     <t>28-08-2008</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   </si>
   <si>
     <t>Perc</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
 </sst>
 </file>
@@ -864,6 +864,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,15 +893,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,63 +1210,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52245782-0F77-4E02-B8CE-C87FD0DBD2A8}">
   <dimension ref="A1:AY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="18" style="15" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="48" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1278,71 +1254,71 @@
       <c r="F1" s="16"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="24" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="25" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="26" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="22"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="25"/>
       <c r="AW1" s="2"/>
-      <c r="AX1" s="27"/>
+      <c r="AX1" s="20"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -1479,11 +1455,11 @@
       <c r="AW2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="28" t="s">
+      <c r="AX2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY2" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="AY2" s="29" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -1494,7 +1470,7 @@
         <v>2280</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9">
         <v>7895709709</v>
@@ -1503,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>21</v>
@@ -1560,67 +1536,67 @@
         <v>36</v>
       </c>
       <c r="Y3" s="9">
-        <f>(IF(I3="Ab",0,I3)+IF(Q3="Ab",0,Q3))</f>
+        <f t="shared" ref="Y3:Y17" si="0">(IF(I3="Ab",0,IF(I3="ML",0,I3))+IF(Q3="Ab",0,IF(Q3="ML",0,Q3)))</f>
         <v>53</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3:AF18" si="0">(IF(J3="Ab",0,J3)+IF(R3="Ab",0,R3))</f>
+        <f t="shared" ref="Z3:Z17" si="1">(IF(J3="Ab",0,IF(J3="ML",0,J3))+IF(R3="Ab",0,IF(R3="ML",0,R3)))</f>
         <v>66</v>
       </c>
       <c r="AA3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA3:AA17" si="2">(IF(K3="Ab",0,IF(K3="ML",0,K3))+IF(S3="Ab",0,IF(S3="ML",0,S3)))</f>
         <v>38</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AB3:AB17" si="3">(IF(L3="Ab",0,IF(L3="ML",0,L3))+IF(T3="Ab",0,IF(T3="ML",0,T3)))</f>
         <v>50</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AC3:AC17" si="4">(IF(M3="Ab",0,IF(M3="ML",0,M3))+IF(U3="Ab",0,IF(U3="ML",0,U3)))</f>
         <v>53</v>
       </c>
       <c r="AD3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AD3:AD17" si="5">(IF(N3="Ab",0,IF(N3="ML",0,N3))+IF(V3="Ab",0,IF(V3="ML",0,V3)))</f>
         <v>47</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE3:AE17" si="6">(IF(O3="Ab",0,IF(O3="ML",0,O3))+IF(W3="Ab",0,IF(W3="ML",0,W3)))</f>
         <v>37</v>
       </c>
       <c r="AF3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AF3:AF17" si="7">(IF(P3="Ab",0,IF(P3="ML",0,P3))+IF(X3="Ab",0,IF(X3="ML",0,X3)))</f>
         <v>52</v>
       </c>
       <c r="AG3" s="9">
-        <f t="shared" ref="AG3:AN18" si="1">ROUND(Y3/100*100,0)</f>
+        <f t="shared" ref="AG3:AN18" si="8">ROUND(Y3/100*100,0)</f>
         <v>53</v>
       </c>
       <c r="AH3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="AI3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AJ3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="AK3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="AL3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="AM3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="AN3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="AO3" s="9" t="str">
@@ -1628,31 +1604,31 @@
         <v>C1</v>
       </c>
       <c r="AP3" s="9" t="str">
-        <f t="shared" ref="AP3:AV18" si="2">IF(AH3&gt;90,"A1",IF(AH3&gt;80,"A2",IF(AH3&gt;70,"B1",IF(AH3&gt;60,"B2",IF(AH3&gt;50,"C1",IF(AH3&gt;40,"C2",IF(AH3&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AP3:AV18" si="9">IF(AH3&gt;90,"A1",IF(AH3&gt;80,"A2",IF(AH3&gt;70,"B1",IF(AH3&gt;60,"B2",IF(AH3&gt;50,"C1",IF(AH3&gt;40,"C2",IF(AH3&gt;32,"D","E")))))))</f>
         <v>B2</v>
       </c>
       <c r="AQ3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="AR3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="AV3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AW3" s="9">
@@ -1675,7 +1651,7 @@
         <v>2248</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="9">
         <v>8938823282</v>
@@ -1684,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>23</v>
@@ -1741,110 +1717,110 @@
         <v>30</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:AF48" si="3">(IF(I4="Ab",0,I4)+IF(Q4="Ab",0,Q4))</f>
+        <f t="shared" ref="Y4:Y48" si="10">(IF(I4="Ab",0,IF(I4="ML",0,I4))+IF(Q4="Ab",0,IF(Q4="ML",0,Q4)))</f>
         <v>38</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Z4:Z48" si="11">(IF(J4="Ab",0,IF(J4="ML",0,J4))+IF(R4="Ab",0,IF(R4="ML",0,R4)))</f>
         <v>43</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA4:AA48" si="12">(IF(K4="Ab",0,IF(K4="ML",0,K4))+IF(S4="Ab",0,IF(S4="ML",0,S4)))</f>
         <v>24</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AB4:AB48" si="13">(IF(L4="Ab",0,IF(L4="ML",0,L4))+IF(T4="Ab",0,IF(T4="ML",0,T4)))</f>
         <v>46</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AC4:AC48" si="14">(IF(M4="Ab",0,IF(M4="ML",0,M4))+IF(U4="Ab",0,IF(U4="ML",0,U4)))</f>
         <v>48</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AD4:AD48" si="15">(IF(N4="Ab",0,IF(N4="ML",0,N4))+IF(V4="Ab",0,IF(V4="ML",0,V4)))</f>
         <v>45</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE4:AE48" si="16">(IF(O4="Ab",0,IF(O4="ML",0,O4))+IF(W4="Ab",0,IF(W4="ML",0,W4)))</f>
         <v>32</v>
       </c>
       <c r="AF4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AF4:AF48" si="17">(IF(P4="Ab",0,IF(P4="ML",0,P4))+IF(X4="Ab",0,IF(X4="ML",0,X4)))</f>
         <v>43</v>
       </c>
       <c r="AG4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AH4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="AI4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AJ4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AK4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="AM4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AN4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="AO4" s="9" t="str">
-        <f t="shared" ref="AO4:AV48" si="4">IF(AG4&gt;90,"A1",IF(AG4&gt;80,"A2",IF(AG4&gt;70,"B1",IF(AG4&gt;60,"B2",IF(AG4&gt;50,"C1",IF(AG4&gt;40,"C2",IF(AG4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AO4:AV48" si="18">IF(AG4&gt;90,"A1",IF(AG4&gt;80,"A2",IF(AG4&gt;70,"B1",IF(AG4&gt;60,"B2",IF(AG4&gt;50,"C1",IF(AG4&gt;40,"C2",IF(AG4&gt;32,"D","E")))))))</f>
         <v>D</v>
       </c>
       <c r="AP4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AQ4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
       <c r="AR4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AT4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
       <c r="AV4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AW4" s="9">
         <v>800</v>
       </c>
       <c r="AX4" s="9">
-        <f t="shared" ref="AX4:AX48" si="5">SUM(Y4:AF4)</f>
+        <f t="shared" ref="AX4:AX48" si="19">SUM(Y4:AF4)</f>
         <v>319</v>
       </c>
       <c r="AY4" s="9">
-        <f t="shared" ref="AY4:AY48" si="6">ROUND(AX4/AW4*100,0)</f>
+        <f t="shared" ref="AY4:AY48" si="20">ROUND(AX4/AW4*100,0)</f>
         <v>40</v>
       </c>
     </row>
@@ -1856,7 +1832,7 @@
         <v>2463</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="9">
         <v>9917628248</v>
@@ -1922,110 +1898,110 @@
         <v>64</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="AC5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="AD5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="AF5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="AG5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="AH5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AJ5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="AK5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="AM5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="AN5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="AO5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AQ5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AR5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AT5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AU5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AV5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AW5" s="9">
         <v>800</v>
       </c>
       <c r="AX5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>506</v>
       </c>
       <c r="AY5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
     </row>
@@ -2037,7 +2013,7 @@
         <v>2434</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="9">
         <v>9756593014</v>
@@ -2103,110 +2079,110 @@
         <v>26</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="Z6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="AA6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AB6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="AD6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="AF6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="AG6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AH6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="AI6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AJ6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AK6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AL6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AM6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="AN6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AO6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AQ6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
       <c r="AR6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="AT6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AV6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AW6" s="9">
         <v>800</v>
       </c>
       <c r="AX6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>334</v>
       </c>
       <c r="AY6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
     </row>
@@ -2218,7 +2194,7 @@
         <v>2640</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9">
         <v>9760402134</v>
@@ -2227,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>31</v>
@@ -2284,110 +2260,110 @@
         <v>42</v>
       </c>
       <c r="Y7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AB7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="AC7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="AF7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="AG7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="AH7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="AI7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AJ7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AK7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AL7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="AM7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="AN7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="AO7" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AQ7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
       <c r="AR7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AT7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AV7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AW7" s="9">
         <v>800</v>
       </c>
       <c r="AX7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>382</v>
       </c>
       <c r="AY7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
     </row>
@@ -2399,7 +2375,7 @@
         <v>2746</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="9">
         <v>6398850470</v>
@@ -2408,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>33</v>
@@ -2465,110 +2441,110 @@
         <v>58</v>
       </c>
       <c r="Y8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="AA8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="AB8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="AC8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="AD8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="AF8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="AG8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="AH8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="AI8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="AJ8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="AK8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="AL8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="AM8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="AN8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="AO8" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AQ8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AR8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AS8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AT8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AU8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AV8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AW8" s="9">
         <v>800</v>
       </c>
       <c r="AX8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>541</v>
       </c>
       <c r="AY8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>68</v>
       </c>
     </row>
@@ -2580,7 +2556,7 @@
         <v>2435</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="9">
         <v>7017647183</v>
@@ -2646,110 +2622,110 @@
         <v>46</v>
       </c>
       <c r="Y9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="AA9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="AB9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="AC9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="AD9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="AF9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="AG9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AH9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AI9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="AJ9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="AK9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="AL9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AM9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="AN9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="AO9" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AQ9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AR9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="AS9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AV9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AW9" s="9">
         <v>800</v>
       </c>
       <c r="AX9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>423</v>
       </c>
       <c r="AY9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
     </row>
@@ -2761,7 +2737,7 @@
         <v>2642</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="9">
         <v>8476058643</v>
@@ -2770,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>38</v>
@@ -2827,110 +2803,110 @@
         <v>54</v>
       </c>
       <c r="Y10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="Z10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="AA10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="AB10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="AC10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="AD10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="AF10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="AG10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="AH10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="AI10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="AJ10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="AK10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="AL10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="AM10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AN10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="AO10" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AQ10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AR10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AS10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AT10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AU10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AV10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AW10" s="9">
         <v>800</v>
       </c>
       <c r="AX10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>558</v>
       </c>
       <c r="AY10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
     </row>
@@ -2942,7 +2918,7 @@
         <v>2741</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9">
         <v>8307615419</v>
@@ -3008,110 +2984,110 @@
         <v>36</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="AM11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="AN11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="AO11" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AQ11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AR11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AT11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AV11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AW11" s="9">
         <v>800</v>
       </c>
       <c r="AX11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>398</v>
       </c>
       <c r="AY11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
     </row>
@@ -3123,7 +3099,7 @@
         <v>2225</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9">
         <v>9720791475</v>
@@ -3132,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>43</v>
@@ -3189,110 +3165,110 @@
         <v>34</v>
       </c>
       <c r="Y12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="Z12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="AA12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="AB12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="AC12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="AD12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="AF12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="AG12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AH12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="AI12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AJ12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AK12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="AL12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AM12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="AN12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="AO12" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AP12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="AQ12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AR12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
       <c r="AS12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="AU12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AV12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AW12" s="9">
         <v>800</v>
       </c>
       <c r="AX12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>349</v>
       </c>
       <c r="AY12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
     </row>
@@ -3304,7 +3280,7 @@
         <v>2259</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="9">
         <v>9837206507</v>
@@ -3370,110 +3346,110 @@
         <v>48</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="AD13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="AF13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="AG13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="AH13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AK13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="AM13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AN13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="AO13" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AQ13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AR13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AS13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AU13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AV13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AW13" s="9">
         <v>800</v>
       </c>
       <c r="AX13" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>463</v>
       </c>
       <c r="AY13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>58</v>
       </c>
     </row>
@@ -3485,7 +3461,7 @@
         <v>2888</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="9">
         <v>9149165543</v>
@@ -3551,110 +3527,110 @@
         <v>62</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="Z14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="AC14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
       <c r="AD14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="AF14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
       <c r="AG14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="AH14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="AI14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="AJ14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="AK14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="AL14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="AM14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="AN14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="AO14" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AQ14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AR14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AS14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AU14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AV14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AW14" s="9">
         <v>800</v>
       </c>
       <c r="AX14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>491</v>
       </c>
       <c r="AY14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
     </row>
@@ -3666,7 +3642,7 @@
         <v>2182</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="9">
         <v>9760576832</v>
@@ -3732,110 +3708,110 @@
         <v>64</v>
       </c>
       <c r="Y15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="Z15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="AA15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="AB15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="AC15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="AD15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="AF15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
       <c r="AG15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AH15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="AI15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="AJ15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="AK15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="AL15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="AM15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="AN15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="AO15" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AQ15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AR15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AS15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AT15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AU15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AV15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AW15" s="9">
         <v>800</v>
       </c>
       <c r="AX15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>667</v>
       </c>
       <c r="AY15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
     </row>
@@ -3847,7 +3823,7 @@
         <v>2532</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9">
         <v>8377009298</v>
@@ -3856,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>54</v>
@@ -3913,110 +3889,110 @@
         <v>76</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="AB16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="AC16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="AD16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="AF16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="AG16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="AH16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="AI16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="AJ16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AK16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="AL16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="AM16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="AN16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AO16" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AP16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AQ16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AR16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AS16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AT16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AU16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AV16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AW16" s="9">
         <v>800</v>
       </c>
       <c r="AX16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>670</v>
       </c>
       <c r="AY16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
     </row>
@@ -4028,7 +4004,7 @@
         <v>2429</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9">
         <v>8126642397</v>
@@ -4094,110 +4070,110 @@
         <v>70</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="AA17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="AB17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="AC17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="AD17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="AE17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="AF17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AG17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="AH17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="AI17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="AJ17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="AK17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="AL17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="AM17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
       <c r="AN17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="AO17" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AP17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AQ17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AR17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AS17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B2</v>
       </c>
       <c r="AT17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AU17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AV17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AW17" s="9">
         <v>800</v>
       </c>
       <c r="AX17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>662</v>
       </c>
       <c r="AY17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
     </row>
@@ -4209,7 +4185,7 @@
         <v>2343</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="9">
         <v>9557295978</v>
@@ -4218,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>59</v>
@@ -4251,135 +4227,135 @@
         <v>13</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AE18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>ROUND(Y18/20*100,0)</f>
+        <v>80</v>
       </c>
       <c r="AH18" s="9">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" ref="AH18:AN18" si="21">ROUND(Z18/20*100,0)</f>
+        <v>65</v>
       </c>
       <c r="AI18" s="9">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="21"/>
+        <v>60</v>
       </c>
       <c r="AJ18" s="9">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="21"/>
+        <v>70</v>
       </c>
       <c r="AK18" s="9">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="21"/>
+        <v>75</v>
       </c>
       <c r="AL18" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="21"/>
+        <v>55</v>
       </c>
       <c r="AM18" s="9">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="21"/>
+        <v>65</v>
       </c>
       <c r="AN18" s="9">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="21"/>
+        <v>65</v>
       </c>
       <c r="AO18" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>E</v>
+        <f t="shared" si="18"/>
+        <v>B1</v>
       </c>
       <c r="AP18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>B2</v>
       </c>
       <c r="AQ18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>C1</v>
       </c>
       <c r="AR18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>B2</v>
       </c>
       <c r="AS18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>B1</v>
       </c>
       <c r="AT18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>C1</v>
       </c>
       <c r="AU18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>B2</v>
       </c>
       <c r="AV18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>B2</v>
       </c>
       <c r="AW18" s="9">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AX18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>107</v>
       </c>
       <c r="AY18" s="9">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
@@ -4390,7 +4366,7 @@
         <v>2270</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="9">
         <v>9837202015</v>
@@ -4399,13 +4375,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="I19" s="12">
         <v>16</v>
@@ -4456,110 +4432,110 @@
         <v>44</v>
       </c>
       <c r="Y19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="Z19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="AA19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="AB19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="AC19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="AD19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="AE19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="AF19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="AG19" s="9">
-        <f t="shared" ref="AG19:AN48" si="7">ROUND(Y19/100*100,0)</f>
+        <f t="shared" ref="AG19:AN48" si="22">ROUND(Y19/100*100,0)</f>
         <v>62</v>
       </c>
       <c r="AH19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="AI19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
       <c r="AJ19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="AK19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AL19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AM19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AN19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="AO19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AQ19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AS19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AV19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW19" s="9">
         <v>800</v>
       </c>
       <c r="AX19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>434</v>
       </c>
       <c r="AY19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>54</v>
       </c>
     </row>
@@ -4571,7 +4547,7 @@
         <v>2230</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="9">
         <v>9719043108</v>
@@ -4580,13 +4556,13 @@
         <v>8</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="I20" s="12">
         <v>17</v>
@@ -4637,110 +4613,110 @@
         <v>36</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="Z20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="AA20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="AB20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="AC20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="AD20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="AE20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="AF20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="AG20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="AH20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="AI20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="AJ20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="AK20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="AL20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>52</v>
       </c>
       <c r="AM20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>62</v>
       </c>
       <c r="AN20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AO20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AQ20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AR20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AS20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AU20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AV20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW20" s="9">
         <v>800</v>
       </c>
       <c r="AX20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>432</v>
       </c>
       <c r="AY20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>54</v>
       </c>
     </row>
@@ -4752,7 +4728,7 @@
         <v>2442</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="9">
         <v>8273888489</v>
@@ -4761,13 +4737,13 @@
         <v>8</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="I21" s="12">
         <v>16</v>
@@ -4818,110 +4794,110 @@
         <v>80</v>
       </c>
       <c r="Y21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="Z21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="AA21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="AB21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="AC21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="AD21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="AE21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="AF21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
       <c r="AG21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AH21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="AI21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>86</v>
       </c>
       <c r="AJ21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
       <c r="AK21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="AL21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="AM21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
       <c r="AN21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>95</v>
       </c>
       <c r="AO21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AR21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AS21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AU21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AV21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AW21" s="9">
         <v>800</v>
       </c>
       <c r="AX21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>568</v>
       </c>
       <c r="AY21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
     </row>
@@ -4933,7 +4909,7 @@
         <v>2441</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="9">
         <v>8126095249</v>
@@ -4942,13 +4918,13 @@
         <v>8</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="I22" s="12">
         <v>15</v>
@@ -4999,110 +4975,110 @@
         <v>48</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>53</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="AE22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="AF22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="AG22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="AH22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AI22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
       <c r="AJ22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="AK22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AL22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AM22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="AN22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="AO22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AR22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AS22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AU22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AV22" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AW22" s="9">
         <v>800</v>
       </c>
       <c r="AX22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>496</v>
       </c>
       <c r="AY22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>62</v>
       </c>
     </row>
@@ -5114,7 +5090,7 @@
         <v>2207</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="9">
         <v>7088677723</v>
@@ -5123,13 +5099,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="I23" s="12">
         <v>16</v>
@@ -5180,110 +5156,110 @@
         <v>60</v>
       </c>
       <c r="Y23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="Z23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="AB23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="AC23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="AD23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="AE23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="AF23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="AG23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="AH23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="AI23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="AJ23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="AK23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
       <c r="AL23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="AM23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AN23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
       <c r="AO23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AR23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AS23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AT23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AV23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW23" s="9">
         <v>800</v>
       </c>
       <c r="AX23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>509</v>
       </c>
       <c r="AY23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
     </row>
@@ -5295,7 +5271,7 @@
         <v>2210</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="9">
         <v>8192995129</v>
@@ -5304,13 +5280,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="I24" s="12">
         <v>14</v>
@@ -5361,110 +5337,110 @@
         <v>40</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="AC24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="AD24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="AE24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="AF24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="AG24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AH24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="AI24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="AJ24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="AK24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="AL24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="AM24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AN24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="AO24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AS24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AU24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AV24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW24" s="9">
         <v>800</v>
       </c>
       <c r="AX24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>331</v>
       </c>
       <c r="AY24" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
     </row>
@@ -5476,7 +5452,7 @@
         <v>2177</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="9">
         <v>7906184880</v>
@@ -5485,13 +5461,13 @@
         <v>8</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="12">
         <v>17</v>
@@ -5542,110 +5518,110 @@
         <v>80</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="AA25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="AB25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="AC25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="AE25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="AF25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="AG25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AH25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AI25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="AJ25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>87</v>
       </c>
       <c r="AK25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>93</v>
       </c>
       <c r="AL25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
       <c r="AM25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="AN25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="AO25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AP25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AQ25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AR25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AS25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AT25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AU25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AV25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AW25" s="9">
         <v>800</v>
       </c>
       <c r="AX25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>713</v>
       </c>
       <c r="AY25" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
     </row>
@@ -5657,7 +5633,7 @@
         <v>2377</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="9">
         <v>7895188092</v>
@@ -5666,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="I26" s="11">
         <v>19</v>
@@ -5723,110 +5699,110 @@
         <v>80</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="Z26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="AA26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="AB26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="AC26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="AD26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="AE26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="AF26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
       <c r="AG26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="AH26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AI26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="AJ26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AK26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="AL26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="AM26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>75</v>
       </c>
       <c r="AN26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>99</v>
       </c>
       <c r="AO26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AP26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AQ26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AR26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AS26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AT26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AU26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AV26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AW26" s="9">
         <v>800</v>
       </c>
       <c r="AX26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>694</v>
       </c>
       <c r="AY26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
     </row>
@@ -5838,7 +5814,7 @@
         <v>2302</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="9">
         <v>9897903069</v>
@@ -5847,13 +5823,13 @@
         <v>8</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I27" s="11">
         <v>18</v>
@@ -5904,110 +5880,110 @@
         <v>62</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="Z27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="AA27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="AB27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="AC27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="AD27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="AE27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="AF27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
       <c r="AG27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AH27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="AI27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="AJ27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="AK27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="AL27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="AM27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>86</v>
       </c>
       <c r="AN27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="AO27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AQ27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AR27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AS27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AU27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AV27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW27" s="9">
         <v>800</v>
       </c>
       <c r="AX27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>538</v>
       </c>
       <c r="AY27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
     </row>
@@ -6019,7 +5995,7 @@
         <v>2755</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="9">
         <v>7505085736</v>
@@ -6028,13 +6004,13 @@
         <v>8</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="I28" s="11">
         <v>14</v>
@@ -6085,110 +6061,110 @@
         <v>58</v>
       </c>
       <c r="Y28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="Z28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="AA28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="AB28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="AC28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="AD28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="AE28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="AF28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="AG28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="AH28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AI28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AJ28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="AK28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="AL28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AM28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
       <c r="AN28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>71</v>
       </c>
       <c r="AO28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AQ28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AR28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AS28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AU28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AV28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW28" s="9">
         <v>800</v>
       </c>
       <c r="AX28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>486</v>
       </c>
       <c r="AY28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
     </row>
@@ -6200,7 +6176,7 @@
         <v>2430</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="9">
         <v>8979013092</v>
@@ -6209,13 +6185,13 @@
         <v>8</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="I29" s="11">
         <v>18</v>
@@ -6266,110 +6242,110 @@
         <v>60</v>
       </c>
       <c r="Y29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="Z29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="AA29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="AB29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="AC29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="AD29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="AE29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>95</v>
       </c>
       <c r="AF29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="AG29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="AH29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="AI29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
       <c r="AJ29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="AK29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>71</v>
       </c>
       <c r="AL29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>87</v>
       </c>
       <c r="AM29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>95</v>
       </c>
       <c r="AN29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>77</v>
       </c>
       <c r="AO29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AR29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AS29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AT29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AU29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AV29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW29" s="9">
         <v>800</v>
       </c>
       <c r="AX29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>604</v>
       </c>
       <c r="AY29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>76</v>
       </c>
     </row>
@@ -6381,7 +6357,7 @@
         <v>2730</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="9">
         <v>9105879144</v>
@@ -6390,13 +6366,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="I30" s="11">
         <v>15</v>
@@ -6447,110 +6423,110 @@
         <v>32</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="AA30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="AB30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="AC30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="AD30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="AE30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="AF30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="AG30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AH30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AI30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AJ30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="AK30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AL30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="AM30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="AN30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="AO30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AS30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AU30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AV30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AW30" s="9">
         <v>800</v>
       </c>
       <c r="AX30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>308</v>
       </c>
       <c r="AY30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
     </row>
@@ -6562,7 +6538,7 @@
         <v>2283</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="9">
         <v>8755273906</v>
@@ -6571,13 +6547,13 @@
         <v>8</v>
       </c>
       <c r="F31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="I31" s="11">
         <v>17</v>
@@ -6628,110 +6604,110 @@
         <v>42</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="Z31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="AA31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AB31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="AC31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="AE31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="AF31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="AG31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>62</v>
       </c>
       <c r="AH31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
       <c r="AI31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="AJ31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="AK31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="AL31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AM31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="AN31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="AO31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AQ31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AS31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AV31" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW31" s="9">
         <v>800</v>
       </c>
       <c r="AX31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>406</v>
       </c>
       <c r="AY31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
     </row>
@@ -6743,7 +6719,7 @@
         <v>2178</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="9">
         <v>9761040379</v>
@@ -6752,13 +6728,13 @@
         <v>8</v>
       </c>
       <c r="F32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="I32" s="11">
         <v>13</v>
@@ -6809,110 +6785,110 @@
         <v>42</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="Z32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="AA32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="AB32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="AC32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>53</v>
       </c>
       <c r="AD32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="AE32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="AF32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="AG32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AH32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AI32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="AJ32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>52</v>
       </c>
       <c r="AK32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AL32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="AM32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AN32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="AO32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AQ32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AR32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AS32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AV32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW32" s="9">
         <v>800</v>
       </c>
       <c r="AX32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>423</v>
       </c>
       <c r="AY32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
     </row>
@@ -6924,7 +6900,7 @@
         <v>2185</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="9">
         <v>8126095249</v>
@@ -6933,13 +6909,13 @@
         <v>8</v>
       </c>
       <c r="F33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="I33" s="11">
         <v>18</v>
@@ -6990,110 +6966,110 @@
         <v>68</v>
       </c>
       <c r="Y33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="Z33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="AA33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="AB33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="AC33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="AD33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="AE33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="AF33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>84</v>
       </c>
       <c r="AG33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="AH33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
       <c r="AI33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
       <c r="AJ33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="AK33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="AL33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
       <c r="AM33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>99</v>
       </c>
       <c r="AN33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AO33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AP33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AR33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AS33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AT33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AU33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AV33" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AW33" s="9">
         <v>800</v>
       </c>
       <c r="AX33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>631</v>
       </c>
       <c r="AY33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>79</v>
       </c>
     </row>
@@ -7105,7 +7081,7 @@
         <v>2859</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" s="9">
         <v>7247881583</v>
@@ -7114,13 +7090,13 @@
         <v>8</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="I34" s="11">
         <v>11</v>
@@ -7171,110 +7147,110 @@
         <v>50</v>
       </c>
       <c r="Y34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="Z34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="AA34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="AB34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="AC34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="AD34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="AE34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="AF34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="AG34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="AH34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="AI34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="AJ34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="AK34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AL34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AM34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="AN34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="AO34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AP34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AS34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AV34" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AW34" s="9">
         <v>800</v>
       </c>
       <c r="AX34" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>355</v>
       </c>
       <c r="AY34" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
     </row>
@@ -7286,7 +7262,7 @@
         <v>2643</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="9">
         <v>8126174580</v>
@@ -7295,10 +7271,10 @@
         <v>8</v>
       </c>
       <c r="F35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>39</v>
@@ -7352,110 +7328,110 @@
         <v>24</v>
       </c>
       <c r="Y35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="Z35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="AA35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AB35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AC35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="AD35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="AE35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="AF35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="AG35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AH35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="AI35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AJ35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="AK35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="AL35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AM35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="AN35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="AO35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AP35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AQ35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AR35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AS35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AT35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AU35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AV35" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AW35" s="9">
         <v>800</v>
       </c>
       <c r="AX35" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>386</v>
       </c>
       <c r="AY35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
     </row>
@@ -7467,7 +7443,7 @@
         <v>2191</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" s="9">
         <v>8449865695</v>
@@ -7476,10 +7452,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>27</v>
@@ -7533,110 +7509,110 @@
         <v>42</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="Z36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="AC36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="AD36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="AE36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="AF36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="AG36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="AH36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="AI36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="AJ36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="AK36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="AL36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AM36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="AN36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="AO36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AQ36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AS36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AT36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AV36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW36" s="9">
         <v>800</v>
       </c>
       <c r="AX36" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>397</v>
       </c>
       <c r="AY36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
     </row>
@@ -7648,7 +7624,7 @@
         <v>2843</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D37" s="9">
         <v>8218601235</v>
@@ -7657,13 +7633,13 @@
         <v>8</v>
       </c>
       <c r="F37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="I37" s="11">
         <v>8</v>
@@ -7714,110 +7690,110 @@
         <v>36</v>
       </c>
       <c r="Y37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="Z37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="AA37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="AB37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="AC37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="AD37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AE37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="AF37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="AG37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AH37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="AI37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="AJ37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="AK37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="AL37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="AM37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="AN37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AO37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AP37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AS37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AT37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AU37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AV37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AW37" s="9">
         <v>800</v>
       </c>
       <c r="AX37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
       <c r="AY37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
     </row>
@@ -7829,7 +7805,7 @@
         <v>2190</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" s="9">
         <v>9837267768</v>
@@ -7838,13 +7814,13 @@
         <v>8</v>
       </c>
       <c r="F38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="I38" s="11">
         <v>18</v>
@@ -7895,110 +7871,110 @@
         <v>58</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="AA38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="AC38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="AE38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="AF38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="AG38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
       <c r="AH38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>79</v>
       </c>
       <c r="AI38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="AJ38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="AK38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
       <c r="AL38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
       <c r="AM38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>86</v>
       </c>
       <c r="AN38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
       <c r="AO38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AP38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AR38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AS38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AT38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AU38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AV38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW38" s="9">
         <v>800</v>
       </c>
       <c r="AX38" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>557</v>
       </c>
       <c r="AY38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
     </row>
@@ -8010,7 +7986,7 @@
         <v>2239</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="9">
         <v>6397472822</v>
@@ -8019,13 +7995,13 @@
         <v>8</v>
       </c>
       <c r="F39" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="H39" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I39" s="11">
         <v>18</v>
@@ -8076,110 +8052,110 @@
         <v>70</v>
       </c>
       <c r="Y39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="Z39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="AA39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="AB39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="AC39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="AD39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>79</v>
       </c>
       <c r="AE39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="AF39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
       <c r="AG39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="AH39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AI39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="AJ39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="AK39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="AL39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>79</v>
       </c>
       <c r="AM39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="AN39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="AO39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AQ39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AR39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AS39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AT39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AU39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AV39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AW39" s="9">
         <v>800</v>
       </c>
       <c r="AX39" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>626</v>
       </c>
       <c r="AY39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
     </row>
@@ -8191,7 +8167,7 @@
         <v>2674</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D40" s="9">
         <v>9997130107</v>
@@ -8200,13 +8176,13 @@
         <v>8</v>
       </c>
       <c r="F40" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="I40" s="11">
         <v>18</v>
@@ -8257,110 +8233,110 @@
         <v>58</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="Z40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="AA40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="AB40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="AC40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="AE40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="AF40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="AG40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>77</v>
       </c>
       <c r="AH40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="AI40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="AJ40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="AK40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AL40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="AM40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="AN40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AO40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AQ40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AR40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AS40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AT40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AU40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
       <c r="AV40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW40" s="9">
         <v>800</v>
       </c>
       <c r="AX40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>590</v>
       </c>
       <c r="AY40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>74</v>
       </c>
     </row>
@@ -8372,7 +8348,7 @@
         <v>2245</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="9">
         <v>8650149410</v>
@@ -8381,13 +8357,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="I41" s="11">
         <v>16</v>
@@ -8438,110 +8414,110 @@
         <v>40</v>
       </c>
       <c r="Y41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="Z41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AA41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="AC41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="AD41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="AE41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="AF41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="AG41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AH41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AI41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AJ41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AK41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AL41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="AM41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AN41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="AO41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AQ41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AR41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AS41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AT41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AV41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW41" s="9">
         <v>800</v>
       </c>
       <c r="AX41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>495</v>
       </c>
       <c r="AY41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>62</v>
       </c>
     </row>
@@ -8553,7 +8529,7 @@
         <v>2214</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="9">
         <v>9368860086</v>
@@ -8562,13 +8538,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="I42" s="11">
         <v>18</v>
@@ -8619,110 +8595,110 @@
         <v>72</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="AD42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="AE42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="AF42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="AG42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="AH42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="AI42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>91</v>
       </c>
       <c r="AJ42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AK42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
       <c r="AL42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="AM42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="AN42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="AO42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AQ42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AR42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AS42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AT42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AU42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AV42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AW42" s="9">
         <v>800</v>
       </c>
       <c r="AX42" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>708</v>
       </c>
       <c r="AY42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
     </row>
@@ -8734,7 +8710,7 @@
         <v>2677</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="9">
         <v>8630307892</v>
@@ -8743,13 +8719,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="I43" s="11">
         <v>18</v>
@@ -8800,110 +8776,110 @@
         <v>68</v>
       </c>
       <c r="Y43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="AA43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="AC43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="AD43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="AE43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>79</v>
       </c>
       <c r="AF43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AG43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AH43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AI43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
       <c r="AJ43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>89</v>
       </c>
       <c r="AK43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AL43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AM43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>79</v>
       </c>
       <c r="AN43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AO43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AP43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AQ43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AR43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AS43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AT43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AU43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AV43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AW43" s="9">
         <v>800</v>
       </c>
       <c r="AX43" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>686</v>
       </c>
       <c r="AY43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
     </row>
@@ -8915,7 +8891,7 @@
         <v>2432</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D44" s="9">
         <v>8936965312</v>
@@ -8924,13 +8900,13 @@
         <v>8</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="I44" s="11">
         <v>16</v>
@@ -8981,110 +8957,110 @@
         <v>60</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="AB44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="AC44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="AE44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="AF44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="AG44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="AH44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>89</v>
       </c>
       <c r="AI44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="AJ44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="AK44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
       <c r="AL44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>71</v>
       </c>
       <c r="AM44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>99</v>
       </c>
       <c r="AN44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AO44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AP44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AQ44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AR44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A2</v>
       </c>
       <c r="AS44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AT44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AU44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>A1</v>
       </c>
       <c r="AV44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
       <c r="AW44" s="9">
         <v>800</v>
       </c>
       <c r="AX44" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>664</v>
       </c>
       <c r="AY44" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
     </row>
@@ -9096,7 +9072,7 @@
         <v>2340</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D45" s="9">
         <v>9045605788</v>
@@ -9105,13 +9081,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="I45" s="11">
         <v>15</v>
@@ -9162,110 +9138,110 @@
         <v>34</v>
       </c>
       <c r="Y45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="AA45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="AB45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="AC45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="AD45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="AE45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="AF45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="AG45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="AH45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AI45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="AJ45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AK45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="AL45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="AM45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="AN45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="AO45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AP45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AR45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AS45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AV45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AW45" s="9">
         <v>800</v>
       </c>
       <c r="AX45" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>333</v>
       </c>
       <c r="AY45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
     </row>
@@ -9277,7 +9253,7 @@
         <v>2533</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="9">
         <v>9760297815</v>
@@ -9286,13 +9262,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="I46" s="11">
         <v>11</v>
@@ -9343,110 +9319,110 @@
         <v>40</v>
       </c>
       <c r="Y46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="Z46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="AA46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AB46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="AC46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="AD46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="AE46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="AF46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="AG46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="AH46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="AI46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="AJ46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="AK46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="AL46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="AM46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="AN46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="AO46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AP46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AQ46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AR46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AS46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AT46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AU46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AV46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW46" s="9">
         <v>800</v>
       </c>
       <c r="AX46" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>281</v>
       </c>
       <c r="AY46" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
     </row>
@@ -9458,7 +9434,7 @@
         <v>2740</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="9">
         <v>9927415451</v>
@@ -9467,13 +9443,13 @@
         <v>8</v>
       </c>
       <c r="F47" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="I47" s="11">
         <v>18</v>
@@ -9524,110 +9500,110 @@
         <v>40</v>
       </c>
       <c r="Y47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="Z47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="AA47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="AB47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="AC47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="AD47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="AE47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="AF47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="AG47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AH47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="AI47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AJ47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="AK47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="AL47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="AM47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="AN47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="AO47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AR47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AS47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AT47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="AU47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AV47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C1</v>
       </c>
       <c r="AW47" s="9">
         <v>800</v>
       </c>
       <c r="AX47" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>355</v>
       </c>
       <c r="AY47" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
     </row>
@@ -9639,7 +9615,7 @@
         <v>2215</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="9">
         <v>9837900638</v>
@@ -9648,10 +9624,10 @@
         <v>8</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>42</v>
@@ -9705,110 +9681,110 @@
         <v>28</v>
       </c>
       <c r="Y48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="AA48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="AB48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="AC48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="AD48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="AE48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="AF48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="AG48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="AH48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="AI48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="AJ48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="AK48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="AL48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="AM48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="AN48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="AO48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AP48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AQ48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AR48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AS48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="AT48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AU48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AV48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>C2</v>
       </c>
       <c r="AW48" s="9">
         <v>800</v>
       </c>
       <c r="AX48" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>339</v>
       </c>
       <c r="AY48" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
     </row>

--- a/data/Class 8 - Examination Results.xlsx
+++ b/data/Class 8 - Examination Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Report-Card\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900BA1A-9699-49F8-BB94-CACBD114F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2D29D-4F47-4953-9AC3-4A3D4A0FAA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3343" yWindow="9154" windowWidth="22149" windowHeight="13920" xr2:uid="{4F1A490C-8F59-40AD-BE00-0C02587873F2}"/>
+    <workbookView xWindow="-16320" yWindow="-2895" windowWidth="16440" windowHeight="29040" xr2:uid="{4F1A490C-8F59-40AD-BE00-0C02587873F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,38 +1211,62 @@
   <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="48" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1536,39 +1560,39 @@
         <v>36</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3:Y17" si="0">(IF(I3="Ab",0,IF(I3="ML",0,I3))+IF(Q3="Ab",0,IF(Q3="ML",0,Q3)))</f>
+        <f t="shared" ref="Y3" si="0">(IF(I3="Ab",0,IF(I3="ML",0,I3))+IF(Q3="Ab",0,IF(Q3="ML",0,Q3)))</f>
         <v>53</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z17" si="1">(IF(J3="Ab",0,IF(J3="ML",0,J3))+IF(R3="Ab",0,IF(R3="ML",0,R3)))</f>
+        <f t="shared" ref="Z3" si="1">(IF(J3="Ab",0,IF(J3="ML",0,J3))+IF(R3="Ab",0,IF(R3="ML",0,R3)))</f>
         <v>66</v>
       </c>
       <c r="AA3" s="9">
-        <f t="shared" ref="AA3:AA17" si="2">(IF(K3="Ab",0,IF(K3="ML",0,K3))+IF(S3="Ab",0,IF(S3="ML",0,S3)))</f>
+        <f t="shared" ref="AA3" si="2">(IF(K3="Ab",0,IF(K3="ML",0,K3))+IF(S3="Ab",0,IF(S3="ML",0,S3)))</f>
         <v>38</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" ref="AB3:AB17" si="3">(IF(L3="Ab",0,IF(L3="ML",0,L3))+IF(T3="Ab",0,IF(T3="ML",0,T3)))</f>
+        <f t="shared" ref="AB3" si="3">(IF(L3="Ab",0,IF(L3="ML",0,L3))+IF(T3="Ab",0,IF(T3="ML",0,T3)))</f>
         <v>50</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" ref="AC3:AC17" si="4">(IF(M3="Ab",0,IF(M3="ML",0,M3))+IF(U3="Ab",0,IF(U3="ML",0,U3)))</f>
+        <f t="shared" ref="AC3" si="4">(IF(M3="Ab",0,IF(M3="ML",0,M3))+IF(U3="Ab",0,IF(U3="ML",0,U3)))</f>
         <v>53</v>
       </c>
       <c r="AD3" s="9">
-        <f t="shared" ref="AD3:AD17" si="5">(IF(N3="Ab",0,IF(N3="ML",0,N3))+IF(V3="Ab",0,IF(V3="ML",0,V3)))</f>
+        <f t="shared" ref="AD3" si="5">(IF(N3="Ab",0,IF(N3="ML",0,N3))+IF(V3="Ab",0,IF(V3="ML",0,V3)))</f>
         <v>47</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="6">(IF(O3="Ab",0,IF(O3="ML",0,O3))+IF(W3="Ab",0,IF(W3="ML",0,W3)))</f>
+        <f t="shared" ref="AE3" si="6">(IF(O3="Ab",0,IF(O3="ML",0,O3))+IF(W3="Ab",0,IF(W3="ML",0,W3)))</f>
         <v>37</v>
       </c>
       <c r="AF3" s="9">
-        <f t="shared" ref="AF3:AF17" si="7">(IF(P3="Ab",0,IF(P3="ML",0,P3))+IF(X3="Ab",0,IF(X3="ML",0,X3)))</f>
+        <f t="shared" ref="AF3" si="7">(IF(P3="Ab",0,IF(P3="ML",0,P3))+IF(X3="Ab",0,IF(X3="ML",0,X3)))</f>
         <v>52</v>
       </c>
       <c r="AG3" s="9">
-        <f t="shared" ref="AG3:AN18" si="8">ROUND(Y3/100*100,0)</f>
+        <f t="shared" ref="AG3:AN17" si="8">ROUND(Y3/100*100,0)</f>
         <v>53</v>
       </c>
       <c r="AH3" s="9">
